--- a/data/trans_dic/P31_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,15%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>85,85%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89,81%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>91,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>91,15%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,68; 94,0</t>
+          <t>79,2; 97,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,62; 99,01</t>
+          <t>87,46; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,41; 97,71</t>
+          <t>76,58; 97,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,41; 91,01</t>
+          <t>79,36; 98,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,05; 96,71</t>
+          <t>69,92; 90,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,6; 97,05</t>
+          <t>67,2; 93,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,27; 91,07</t>
+          <t>82,9; 98,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,41; 96,73</t>
+          <t>76,14; 96,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,83; 96,66</t>
+          <t>78,4; 91,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>80,25; 95,29</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>83,88; 95,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>82,03; 96,43</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,18%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>88,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>86,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>89,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86,71%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,26; 92,01</t>
+          <t>81,36; 92,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,43; 91,7</t>
+          <t>82,0; 93,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,01; 92,85</t>
+          <t>83,54; 93,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,34; 88,24</t>
+          <t>77,87; 91,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,4</t>
+          <t>80,16; 90,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,5; 93,22</t>
+          <t>83,61; 93,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,53; 89,13</t>
+          <t>82,79; 92,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,84; 91,49</t>
+          <t>81,8; 92,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,35; 91,92</t>
+          <t>82,1; 90,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84,18; 92,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85,45; 92,28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>82,41; 90,43</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>81,75%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>88,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>81,69%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,38; 88,29</t>
+          <t>74,82; 88,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,99; 87,85</t>
+          <t>74,05; 88,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,05; 91,87</t>
+          <t>79,38; 92,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,02; 87,33</t>
+          <t>71,63; 87,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,42; 86,65</t>
+          <t>74,83; 87,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,31; 92,09</t>
+          <t>73,32; 86,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,48; 86,69</t>
+          <t>85,02; 94,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,24; 85,72</t>
+          <t>75,82; 87,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,34; 91,04</t>
+          <t>77,15; 85,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76,38; 85,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>84,77; 92,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>76,3; 85,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,44; 89,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,23; 90,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,88; 92,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,44; 86,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,86; 92,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,28; 87,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,41; 89,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,89; 91,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>85,71%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87,06%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88,89%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>85,12%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>83,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>85,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>89,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84,66%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86,04%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>89,39%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>85,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81,24; 88,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82,93; 90,92</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>84,39; 91,88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80,58; 89,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>79,62; 87,09</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81,07; 88,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86,21; 92,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82,5; 89,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>81,78; 87,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>83,18; 88,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>86,85; 91,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82,89; 88,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,15%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>116185</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>95202</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>101795</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>161150</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>116772</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>89173</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>113804</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>186242</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>232956</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>184375</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>215599</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>347392</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>102071; 125578</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86664; 99093</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>87405; 111658</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>138222; 172093</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>99611; 129150</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>71365; 98962</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>101456; 119999</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>157554; 200310</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>212752; 249508</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>164748; 195638</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>198401; 226972</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>312635; 367494</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>369705</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>331656</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>359984</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>419091</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>400870</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>327599</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>329811</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>414969</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>770575</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>659255</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>689794</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>834060</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>344345; 390935</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>306868; 349914</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>333732; 375357</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>381023; 446579</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>372310; 422059</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>307103; 342344</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>308966; 346059</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>386590; 435960</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>728850; 802804</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>624221; 682600</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>660263; 713026</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>792723; 869888</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>272665</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>229245</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>239555</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>273863</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>349672</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>268134</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>294370</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>290293</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>622338</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>497380</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>533925</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>564157</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>249056; 293569</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>207524; 247555</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>218607; 255384</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>243467; 296494</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>320584; 373266</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>243057; 286536</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>276751; 308210</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>265926; 308353</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>587352; 653493</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>467253; 524476</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>509363; 555888</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>526960; 593539</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>595.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>758555</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>656103</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>701334</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>854104</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>867314</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>684906</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>737984</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>891505</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1625870</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1341009</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1439319</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1745609</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>718995; 787575</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>624983; 685142</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>665877; 724941</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>808525; 896974</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>824383; 901650</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>652643; 714414</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>707918; 760772</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>849924; 924901</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1570389; 1671120</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1296437; 1383967</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1398403; 1476112</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1685689; 1799765</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
